--- a/React-Topics.xlsx
+++ b/React-Topics.xlsx
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/React-Topics.xlsx
+++ b/React-Topics.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/React-Topics.xlsx
+++ b/React-Topics.xlsx
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,7 +527,7 @@
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -566,11 +566,11 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -581,7 +581,7 @@
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2"/>
@@ -590,11 +590,11 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="2"/>
     </row>
